--- a/TargetedTargetsVertical20.xlsx
+++ b/TargetedTargetsVertical20.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15" windowWidth="28455" windowHeight="11640"/>
+    <workbookView xWindow="120" yWindow="20" windowWidth="28460" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -52,8 +57,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -524,16 +529,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="Q3" sqref="Q3:X22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" ht="17.25">
+    <row r="1" spans="1:24" s="1" customFormat="1" ht="17">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -565,7 +570,7 @@
       <c r="W1" s="5"/>
       <c r="X1" s="5"/>
     </row>
-    <row r="2" spans="1:24" s="4" customFormat="1" ht="17.25">
+    <row r="2" spans="1:24" s="4" customFormat="1" ht="17">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -641,22 +646,22 @@
     </row>
     <row r="3" spans="1:24">
       <c r="A3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3">
         <v>6</v>
@@ -665,68 +670,68 @@
         <v>6</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I34" si="0">A3+1</f>
+        <f>A3+2</f>
         <v>10</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J34" si="1">B3+1</f>
+        <f t="shared" ref="J3:P18" si="0">B3+2</f>
         <v>10</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K34" si="2">C3+1</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L34" si="3">D3+1</f>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M34" si="4">E3+1</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N34" si="5">F3+1</f>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O34" si="6">G3+1</f>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P34" si="7">H3+1</f>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q34" si="8">A3+2</f>
-        <v>11</v>
+        <f>A3+4</f>
+        <v>12</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R34" si="9">B3+2</f>
-        <v>11</v>
+        <f t="shared" ref="R3:X18" si="1">B3+4</f>
+        <v>12</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S34" si="10">C3+2</f>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T34" si="11">D3+2</f>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="U3">
-        <f t="shared" ref="U3:U34" si="12">E3+2</f>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="V3">
-        <f t="shared" ref="V3:V34" si="13">F3+2</f>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="W3">
-        <f t="shared" ref="W3:W34" si="14">G3+2</f>
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="X3">
-        <f t="shared" ref="X3:X34" si="15">H3+2</f>
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -734,13 +739,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>6</v>
@@ -749,344 +754,344 @@
         <v>6</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f t="shared" ref="I4:I22" si="2">A4+2</f>
+        <v>8</v>
       </c>
       <c r="J4">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="K4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="L4">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="M4">
-        <f t="shared" si="4"/>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="N4">
-        <f t="shared" si="5"/>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="O4">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="P4">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="8"/>
-        <v>8</v>
+        <f t="shared" ref="Q4:Q22" si="3">A4+4</f>
+        <v>10</v>
       </c>
       <c r="R4">
-        <f t="shared" si="9"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="S4">
-        <f t="shared" si="10"/>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="T4">
-        <f t="shared" si="11"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="U4">
-        <f t="shared" si="12"/>
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="V4">
-        <f t="shared" si="13"/>
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="W4">
-        <f t="shared" si="14"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="X4">
-        <f t="shared" si="15"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:24">
       <c r="A5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>6</v>
       </c>
       <c r="I5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="J5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="K5">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="L5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="Q5">
         <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="M5">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="O5">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="P5">
-        <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" si="8"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R5">
-        <f t="shared" si="9"/>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="S5">
-        <f t="shared" si="10"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="T5">
-        <f t="shared" si="11"/>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="U5">
-        <f t="shared" si="12"/>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="V5">
-        <f t="shared" si="13"/>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="W5">
-        <f t="shared" si="14"/>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="X5">
-        <f t="shared" si="15"/>
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:24">
       <c r="A6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I6">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="J6">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="K6">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="L6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="Q6">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="P6">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="8"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R6">
-        <f t="shared" si="9"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="S6">
-        <f t="shared" si="10"/>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="T6">
-        <f t="shared" si="11"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="U6">
-        <f t="shared" si="12"/>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="V6">
-        <f t="shared" si="13"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="W6">
-        <f t="shared" si="14"/>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="X6">
-        <f t="shared" si="15"/>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:24">
       <c r="A7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I7">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="J7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="K7">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="L7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="Q7">
         <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="8"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R7">
-        <f t="shared" si="9"/>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="S7">
-        <f t="shared" si="10"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="T7">
-        <f t="shared" si="11"/>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="U7">
-        <f t="shared" si="12"/>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="V7">
-        <f t="shared" si="13"/>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="W7">
-        <f t="shared" si="14"/>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="X7">
-        <f t="shared" si="15"/>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -1094,809 +1099,809 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8">
         <v>6</v>
       </c>
       <c r="E8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I8">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="J8">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="K8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="L8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="Q8">
         <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="P8">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="8"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R8">
-        <f t="shared" si="9"/>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="S8">
-        <f t="shared" si="10"/>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="T8">
-        <f t="shared" si="11"/>
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="U8">
-        <f t="shared" si="12"/>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="V8">
-        <f t="shared" si="13"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="W8">
-        <f t="shared" si="14"/>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="X8">
-        <f t="shared" si="15"/>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:24">
       <c r="A9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>6</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="J9">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="K9">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="L9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Q9">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="8"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R9">
-        <f t="shared" si="9"/>
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="S9">
-        <f t="shared" si="10"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="T9">
-        <f t="shared" si="11"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="U9">
-        <f t="shared" si="12"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="V9">
-        <f t="shared" si="13"/>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="W9">
-        <f t="shared" si="14"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="X9">
-        <f t="shared" si="15"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:24">
       <c r="A10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C10">
         <v>6</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G10">
         <v>6</v>
       </c>
       <c r="H10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I10">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="J10">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="K10">
-        <f t="shared" si="2"/>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="L10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="Q10">
         <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="O10">
-        <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="P10">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" si="8"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R10">
-        <f t="shared" si="9"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="S10">
-        <f t="shared" si="10"/>
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="T10">
-        <f t="shared" si="11"/>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="U10">
-        <f t="shared" si="12"/>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="V10">
-        <f t="shared" si="13"/>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="W10">
-        <f t="shared" si="14"/>
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="X10">
-        <f t="shared" si="15"/>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:24">
       <c r="A11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11">
         <v>6</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="J11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="K11">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="L11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Q11">
         <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="O11">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="P11">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" si="8"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R11">
-        <f t="shared" si="9"/>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="S11">
-        <f t="shared" si="10"/>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="T11">
-        <f t="shared" si="11"/>
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="U11">
-        <f t="shared" si="12"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="V11">
-        <f t="shared" si="13"/>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="W11">
-        <f t="shared" si="14"/>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="X11">
-        <f t="shared" si="15"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:24">
       <c r="A12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C12">
         <v>6</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I12">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="J12">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="K12">
-        <f t="shared" si="2"/>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="L12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="Q12">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="8"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R12">
-        <f t="shared" si="9"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="S12">
-        <f t="shared" si="10"/>
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="T12">
-        <f t="shared" si="11"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="U12">
-        <f t="shared" si="12"/>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="V12">
-        <f t="shared" si="13"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="W12">
-        <f t="shared" si="14"/>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="X12">
-        <f t="shared" si="15"/>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:24">
       <c r="A13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="J13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="K13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="L13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="Q13">
         <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="O13">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="P13">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="Q13">
-        <f t="shared" si="8"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R13">
-        <f t="shared" si="9"/>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="S13">
-        <f t="shared" si="10"/>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="T13">
-        <f t="shared" si="11"/>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="U13">
-        <f t="shared" si="12"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="V13">
-        <f t="shared" si="13"/>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="W13">
-        <f t="shared" si="14"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="X13">
-        <f t="shared" si="15"/>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:24">
       <c r="A14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E14">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G14">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H14">
         <v>6</v>
       </c>
       <c r="I14">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="J14">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="K14">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="L14">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="Q14">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="P14">
-        <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" si="8"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R14">
-        <f t="shared" si="9"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="S14">
-        <f t="shared" si="10"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="T14">
-        <f t="shared" si="11"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="U14">
-        <f t="shared" si="12"/>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="V14">
-        <f t="shared" si="13"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="W14">
-        <f t="shared" si="14"/>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="X14">
-        <f t="shared" si="15"/>
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:24">
       <c r="A15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B15">
         <v>6</v>
       </c>
       <c r="C15">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D15">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E15">
         <v>6</v>
       </c>
       <c r="F15">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I15">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="J15">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="K15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="L15">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="Q15">
         <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="P15">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" si="8"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R15">
-        <f t="shared" si="9"/>
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="S15">
-        <f t="shared" si="10"/>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="T15">
-        <f t="shared" si="11"/>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="U15">
-        <f t="shared" si="12"/>
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="V15">
-        <f t="shared" si="13"/>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="W15">
-        <f t="shared" si="14"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="X15">
-        <f t="shared" si="15"/>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:24">
       <c r="A16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E16">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G16">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H16">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I16">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="J16">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="K16">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="L16">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="Q16">
         <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="M16">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="N16">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="P16">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="Q16">
-        <f t="shared" si="8"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R16">
-        <f t="shared" si="9"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="S16">
-        <f t="shared" si="10"/>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="T16">
-        <f t="shared" si="11"/>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="U16">
-        <f t="shared" si="12"/>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="V16">
-        <f t="shared" si="13"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="W16">
-        <f t="shared" si="14"/>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="X16">
-        <f t="shared" si="15"/>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:24">
@@ -1904,179 +1909,179 @@
         <v>6</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C17">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <v>6</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H17">
         <v>6</v>
       </c>
       <c r="I17">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="J17">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="K17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="L17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="Q17">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="O17">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="P17">
-        <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
-      <c r="Q17">
-        <f t="shared" si="8"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R17">
-        <f t="shared" si="9"/>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="S17">
-        <f t="shared" si="10"/>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="T17">
-        <f t="shared" si="11"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="U17">
-        <f t="shared" si="12"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="V17">
-        <f t="shared" si="13"/>
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="W17">
-        <f t="shared" si="14"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="X17">
-        <f t="shared" si="15"/>
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:24">
       <c r="A18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B18">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18">
         <v>6</v>
       </c>
       <c r="D18">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E18">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F18">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G18">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H18">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I18">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="J18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="K18">
-        <f t="shared" si="2"/>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="L18">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="Q18">
         <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="M18">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="N18">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="O18">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="P18">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="Q18">
-        <f t="shared" si="8"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R18">
-        <f t="shared" si="9"/>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="S18">
-        <f t="shared" si="10"/>
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="T18">
-        <f t="shared" si="11"/>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="U18">
-        <f t="shared" si="12"/>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="V18">
-        <f t="shared" si="13"/>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="W18">
-        <f t="shared" si="14"/>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="X18">
-        <f t="shared" si="15"/>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:24">
@@ -2087,356 +2092,356 @@
         <v>6</v>
       </c>
       <c r="C19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E19">
         <v>6</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I19">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="J19">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <f t="shared" ref="J19:J22" si="4">B19+2</f>
+        <v>8</v>
       </c>
       <c r="K19">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="K19:K22" si="5">C19+2</f>
         <v>10</v>
       </c>
       <c r="L19">
+        <f t="shared" ref="L19:L22" si="6">D19+2</f>
+        <v>4</v>
+      </c>
+      <c r="M19">
+        <f t="shared" ref="M19:M22" si="7">E19+2</f>
+        <v>8</v>
+      </c>
+      <c r="N19">
+        <f t="shared" ref="N19:N22" si="8">F19+2</f>
+        <v>4</v>
+      </c>
+      <c r="O19">
+        <f t="shared" ref="O19:O22" si="9">G19+2</f>
+        <v>6</v>
+      </c>
+      <c r="P19">
+        <f t="shared" ref="P19:P22" si="10">H19+2</f>
+        <v>6</v>
+      </c>
+      <c r="Q19">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="N19">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="P19">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="Q19">
-        <f t="shared" si="8"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R19">
-        <f t="shared" si="9"/>
-        <v>8</v>
+        <f t="shared" ref="R19:R22" si="11">B19+4</f>
+        <v>10</v>
       </c>
       <c r="S19">
-        <f t="shared" si="10"/>
-        <v>11</v>
+        <f t="shared" ref="S19:S22" si="12">C19+4</f>
+        <v>12</v>
       </c>
       <c r="T19">
-        <f t="shared" si="11"/>
-        <v>2</v>
+        <f t="shared" ref="T19:T22" si="13">D19+4</f>
+        <v>6</v>
       </c>
       <c r="U19">
-        <f t="shared" si="12"/>
-        <v>8</v>
+        <f t="shared" ref="U19:U22" si="14">E19+4</f>
+        <v>10</v>
       </c>
       <c r="V19">
-        <f t="shared" si="13"/>
-        <v>2</v>
+        <f t="shared" ref="V19:V22" si="15">F19+4</f>
+        <v>6</v>
       </c>
       <c r="W19">
-        <f t="shared" si="14"/>
-        <v>5</v>
+        <f t="shared" ref="W19:W22" si="16">G19+4</f>
+        <v>8</v>
       </c>
       <c r="X19">
-        <f t="shared" si="15"/>
-        <v>5</v>
+        <f t="shared" ref="X19:X22" si="17">H19+4</f>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:24">
       <c r="A20">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D20">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>6</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="J20">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="K20">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="L20">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="Q20">
         <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="M20">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="N20">
-        <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="O20">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="P20">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="Q20">
-        <f t="shared" si="8"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R20">
-        <f t="shared" si="9"/>
-        <v>2</v>
+        <f t="shared" si="11"/>
+        <v>6</v>
       </c>
       <c r="S20">
-        <f t="shared" si="10"/>
-        <v>2</v>
+        <f t="shared" si="12"/>
+        <v>6</v>
       </c>
       <c r="T20">
-        <f t="shared" si="11"/>
-        <v>11</v>
+        <f t="shared" si="13"/>
+        <v>12</v>
       </c>
       <c r="U20">
-        <f t="shared" si="12"/>
-        <v>2</v>
+        <f t="shared" si="14"/>
+        <v>6</v>
       </c>
       <c r="V20">
-        <f t="shared" si="13"/>
-        <v>8</v>
+        <f t="shared" si="15"/>
+        <v>10</v>
       </c>
       <c r="W20">
-        <f t="shared" si="14"/>
-        <v>2</v>
+        <f t="shared" si="16"/>
+        <v>6</v>
       </c>
       <c r="X20">
-        <f t="shared" si="15"/>
-        <v>2</v>
+        <f t="shared" si="17"/>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:24">
       <c r="A21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C21">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D21">
         <v>6</v>
       </c>
       <c r="E21">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G21">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H21">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I21">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="J21">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>6</v>
       </c>
       <c r="K21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="L21">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="Q21">
         <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="M21">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="N21">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="P21">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="Q21">
-        <f t="shared" si="8"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R21">
-        <f t="shared" si="9"/>
-        <v>5</v>
+        <f t="shared" si="11"/>
+        <v>8</v>
       </c>
       <c r="S21">
-        <f t="shared" si="10"/>
-        <v>11</v>
+        <f t="shared" si="12"/>
+        <v>12</v>
       </c>
       <c r="T21">
-        <f t="shared" si="11"/>
-        <v>8</v>
+        <f t="shared" si="13"/>
+        <v>10</v>
       </c>
       <c r="U21">
-        <f t="shared" si="12"/>
-        <v>11</v>
+        <f t="shared" si="14"/>
+        <v>12</v>
       </c>
       <c r="V21">
-        <f t="shared" si="13"/>
-        <v>2</v>
+        <f t="shared" si="15"/>
+        <v>6</v>
       </c>
       <c r="W21">
-        <f t="shared" si="14"/>
-        <v>11</v>
+        <f t="shared" si="16"/>
+        <v>12</v>
       </c>
       <c r="X21">
-        <f t="shared" si="15"/>
-        <v>11</v>
+        <f t="shared" si="17"/>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:24">
       <c r="A22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G22">
         <v>6</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="J22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="K22">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="L22">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="Q22">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="N22">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="O22">
-        <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="P22">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="Q22">
-        <f t="shared" si="8"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R22">
-        <f t="shared" si="9"/>
-        <v>11</v>
+        <f t="shared" si="11"/>
+        <v>12</v>
       </c>
       <c r="S22">
-        <f t="shared" si="10"/>
-        <v>2</v>
+        <f t="shared" si="12"/>
+        <v>6</v>
       </c>
       <c r="T22">
-        <f t="shared" si="11"/>
-        <v>2</v>
+        <f t="shared" si="13"/>
+        <v>6</v>
       </c>
       <c r="U22">
-        <f t="shared" si="12"/>
-        <v>2</v>
+        <f t="shared" si="14"/>
+        <v>6</v>
       </c>
       <c r="V22">
-        <f t="shared" si="13"/>
-        <v>5</v>
+        <f t="shared" si="15"/>
+        <v>8</v>
       </c>
       <c r="W22">
-        <f t="shared" si="14"/>
-        <v>8</v>
+        <f t="shared" si="16"/>
+        <v>10</v>
       </c>
       <c r="X22">
-        <f t="shared" si="15"/>
-        <v>2</v>
+        <f t="shared" si="17"/>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2447,5 +2452,10 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>